--- a/Chart for Clif.xlsx
+++ b/Chart for Clif.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="-80" windowWidth="25440" windowHeight="13700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mark Isom</author>
+  </authors>
+  <commentList>
+    <comment ref="E32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>Mark Isom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+DID I DO THIS ALL WRONG</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
@@ -232,7 +264,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -268,6 +306,17 @@
       <sz val="9"/>
       <color indexed="63"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="5">
@@ -474,6 +523,81 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -483,81 +607,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -579,13 +628,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,24 +723,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="306258760"/>
-        <c:axId val="306261784"/>
+        <c:axId val="341658712"/>
+        <c:axId val="504241800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306258760"/>
+        <c:axId val="341658712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306261784"/>
+        <c:crossAx val="504241800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306261784"/>
+        <c:axId val="504241800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +748,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306258760"/>
+        <c:crossAx val="341658712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -776,24 +825,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="306317496"/>
-        <c:axId val="306320520"/>
+        <c:axId val="490555512"/>
+        <c:axId val="554949304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306317496"/>
+        <c:axId val="490555512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306320520"/>
+        <c:crossAx val="554949304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306320520"/>
+        <c:axId val="554949304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +850,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306317496"/>
+        <c:crossAx val="490555512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,24 +958,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="306353032"/>
-        <c:axId val="306343912"/>
+        <c:axId val="560546216"/>
+        <c:axId val="555591416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306353032"/>
+        <c:axId val="560546216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306343912"/>
+        <c:crossAx val="555591416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306343912"/>
+        <c:axId val="555591416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +983,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306353032"/>
+        <c:crossAx val="560546216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1378,7 +1427,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -1402,27 +1451,27 @@
       <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="15"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="42"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="49" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -1431,47 +1480,47 @@
       <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="16" thickBot="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="16" thickBot="1">
       <c r="A5" s="1" t="s">
@@ -1658,19 +1707,19 @@
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -1679,7 +1728,7 @@
       <c r="K10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1690,18 +1739,18 @@
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1">
       <c r="A12" s="25"/>
@@ -1710,16 +1759,16 @@
       <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1">
       <c r="A13" s="1" t="s">
@@ -1868,19 +1917,19 @@
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1889,7 +1938,7 @@
       <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1900,18 +1949,18 @@
       <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="40"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="16" thickBot="1">
       <c r="A19" s="25"/>
@@ -1920,16 +1969,16 @@
       <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="41"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="31" thickBot="1">
       <c r="A20" s="1" t="s">
@@ -2257,22 +2306,13 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="36">
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
@@ -2289,15 +2329,27 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
